--- a/Data/Transitions/19391948Translation.xlsx
+++ b/Data/Transitions/19391948Translation.xlsx
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -271,7 +271,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{185.0: 1.0, 700.0: 0.015375789095560654}</t>
@@ -319,13 +319,13 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -361,7 +361,7 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -370,7 +370,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -445,6 +445,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -508,7 +511,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -637,9 +640,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -652,16 +652,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9981033392723719, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.9980654238480479, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,7 +700,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -775,7 +775,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -808,7 +808,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -982,7 +982,7 @@
     <t>{593.0: 1.0, 171.0: 0.005747126436781609}</t>
   </si>
   <si>
-    <t>{595.0: 1.0, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 1.0, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1081,7 +1081,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1156,7 +1156,7 @@
     <t>{695.0: 0.998165137614679}</t>
   </si>
   <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1327,7 +1327,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1459,10 +1459,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1471,7 +1471,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1546,7 +1546,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1564,7 +1564,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1669,7 +1669,7 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568005, 850.0: 0.00017928140534721575}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39947793129057646, 850.0: 0.0001788173371936332}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069352, 850.0: 0.0004474272930648769}</t>
@@ -1729,7 +1729,7 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -1753,7 +1753,7 @@
     <t>{479.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9974491964968968, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409935, 695.0: 0.0011773016246762421}</t>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3898,29 +3898,29 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>561</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4019,29 +4019,29 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>562</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4063,29 +4063,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>563</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4327,40 +4327,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>564</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4371,29 +4371,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>566</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>566</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4470,29 +4470,29 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>558</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>558</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
